--- a/Config/tables/GoodConfig.xlsx
+++ b/Config/tables/GoodConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14865" activeTab="1"/>
+    <workbookView windowWidth="21045" windowHeight="14190"/>
   </bookViews>
   <sheets>
     <sheet name="GoodConfig" sheetId="1" r:id="rId1"/>
@@ -445,13 +445,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -464,7 +465,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1301,8 +1301,8 @@
   <sheetPr/>
   <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="15.75" spans="1:27">
       <c r="A5" s="14">
-        <v>12100001</v>
+        <v>11100001</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>33</v>
@@ -2956,7 +2956,7 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
